--- a/processing/test/20230613-a1r-nc-session3-j_transcript.xlsx
+++ b/processing/test/20230613-a1r-nc-session3-j_transcript.xlsx
@@ -6,8 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20230613-a1r-nc-session3-j_tran" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="proposal" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -62,7 +61,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -73,6 +72,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,194 +361,209 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="12.6328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="12.5" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.5" customWidth="1" min="2" max="2"/>
+    <col width="13.5" customWidth="1" min="3" max="3"/>
+    <col width="273" customWidth="1" min="4" max="4"/>
+    <col width="16.5" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>speaker</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Speaker</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Has Arguments</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>All Arguments Summarized</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Order</t>
-        </is>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>"2:09"</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>I gang. I think we all know each other. I'm Terry L from Madison Alabama. Well, Tom glass artist and glad to be here with you.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="n">
         <v>48707</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>"2:20"</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>Hello. My name is John Houston from Cincinnati Ohio.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>"2:27"</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>Hi. My name is Christina Zorn and I am from Northern Virginia and hope you guys are having a great day.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="n">
         <v>48701</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>"2:35"</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>Hi. Alana. Riser from Long Island, New York.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="n">
         <v>10150</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>"2:39"</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="n">
         <v>9870</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>"2:44"</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>Hello, Teresa cook from Little Town, Alabama, you've never probably never heard of thank you.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="n">
         <v>48707</v>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>"11:14"</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>I think the register on buy online. It's fine. It's just as long as you have your legal to you know you have a legal ID to vote. I mean if you can if you have an ID or a state ID or or whatever, I don't have a problem with voting online are you know, registering online</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person thinks it is acceptable to register to vote online.
 2. They believe that it is important to have a legal ID to vote.
@@ -554,440 +571,464 @@
 4. They mention that a state ID is an acceptable form of identification for this purpose.</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>"11:44"</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>I agree with the registration online and I agree with registration on Election Day. I live in a city where people are moving here everyday and sometimes figuring out how to vote is way down the list of things, they take care of and then suddenly we have an election and they can't vote because they didn't register in the length of time that they had or that they were supposed to. And I really like the audit idea of automatic registration with an opt-out. I think more people would consider</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>"11:44"</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>Her voting if they didn't have to go to the trouble of registering.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>"12:19"</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>Yeah, I actually agree with that. I was going to say that. I think that it should be automatic if you're in the system and you're eligible to vote, then why are they making another step with having to register for it? Now whether the people go to the polls, that's their own choice, but at least don't make it more difficult for people to go vote.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker agrees with the idea that voting should be automatic for eligible individuals within a system.
-2. They believe that making voting registration a separate step creates unnecessary complexity.
-3. The speaker suggests that while attendance at polling stations is a personal choice, the voting process itself should be made as simple as possible.</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+2. The speaker points out that they had a similar opinion.
+3. They believe that making voting registration a separate step creates unnecessary complexity.
+4. The speaker acknowledges that ultimately, whether people choose to vote or not is their decision.
+5. However, they argue that the voting process should not be made more difficult than it already is.</t>
+        </is>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="n">
         <v>48783</v>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>"12:41"</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t>Hello Mother. Uncle feels really nice.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>11</v>
-      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="A13" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>"12:58"</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>12</v>
-      </c>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="A14" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>"12:58"</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>13</v>
-      </c>
+      <c r="D14" s="6" t="n"/>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="A15" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>"12:58"</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>14</v>
-      </c>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="n"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="A16" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>"12:58"</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>15</v>
-      </c>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="n"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="A17" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>"12:58"</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>Can you hear me now?</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>16</v>
-      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="n"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>"13:15"</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>Matt, we can't hear you or I can't hear you.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The message is addressed to a person named Matt.
 2. The message indicates that there is a problem with hearing Matt or specifically, the speaker is having trouble hearing Matt.</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="n">
         <v>48701</v>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>"13:41"</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>18</v>
-      </c>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="n">
         <v>48701</v>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>"13:41"</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>We heard you at the end there. Matt, I would say I like I agree with everything that's been said, I think all three of these are good. I honestly think that we should be able to vote online at this point.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>19</v>
-      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>"14:04"</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t>I do feel if we were able to vote online there could be a lot of voter fraud is. That's my only concern with just being able to vote online just because if people are able to hack in and get everyone's credit cards and everything else but at least you have to have a photo ID and some you know mail or identification it makes it a little bit harder for people that need to go show their faces rather than if you can just do it behind a screen.</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker has reservations about online voting due to the potential for voter fraud.
-2. The speaker's primary concern is the vulnerability of online systems to hacking, which could result in the theft of sensitive information such as credit card details.
-3. The speaker believes that current voting systems, which require photo ID and other forms of identification, make it more difficult for fraudulent activity to occur.
-4. The speaker suggests that online voting would make it easier for people to engage in fraudulent activity, as it would not require them to physically present identification.</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>20</v>
+2. The speaker's primary concern is that hackers could access sensitive information, such as credit card details.
+3. The speaker believes that in-person voting requires more effort and is therefore harder to fraudulently manipulate.
+4. In-person voting requires photo ID and other forms of identification, which adds an extra layer of security.
+5. The speaker thinks that online voting would be easier to cheat in, as it only requires access to a screen.</t>
+        </is>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>"14:31"</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t>My husband works in computer security and he's often said that there are ways to make it a more secure system than it is. And if we're putting money toward like Congress, is giving money toward election type activities, that that could be something that was actually taken care of</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. My husband works in computer security.
-2. He has mentioned that there are ways to enhance the security of the system.
-3. We are putting money toward Congress and election activities.
-4. According to my husband, this is something that could be secured more effectively.</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>21</v>
+2. He has mentioned that there are ways to enhance the security of a system.
+3. The text suggests that money from Congress is given towards election activities.
+4. It is implied that some of this money could be used to improve the security of the system.</t>
+        </is>
       </c>
     </row>
     <row r="23" ht="12.5" customHeight="1">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>"17:01"</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
+      <c r="D23" s="6" t="inlineStr">
         <is>
           <t>I don't think you should have to vote in person on the day of the election. There's a lot of circumstances where people are away on business, or vacation or helping a relative anything. And if they can know to vote in advance than I think, that should be granted.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. It is not ideal to require voting in person on the day of the election.
 2. There are many circumstances where people cannot vote in person on election day, such as being away for business, vacation, or helping relatives.
 3. People should be allowed to vote in advance if they know how to do so.</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="24" ht="12.5" customHeight="1">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>"17:01"</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>23</v>
-      </c>
+      <c r="D24" s="6" t="n"/>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F24" s="6" t="n"/>
     </row>
     <row r="25" ht="12.5" customHeight="1">
-      <c r="A25" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="A25" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>"17:20"</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>24</v>
-      </c>
+      <c r="D25" s="6" t="n"/>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F25" s="6" t="n"/>
     </row>
     <row r="26" ht="12.5" customHeight="1">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>"17:32"</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>25</v>
-      </c>
+      <c r="D26" s="6" t="n"/>
+      <c r="E26" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F26" s="6" t="n"/>
     </row>
     <row r="27" ht="12.5" customHeight="1">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="C27" s="6" t="inlineStr">
         <is>
           <t>"17:32"</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t>I agree with you, Christina and on the physically voting in person we hit. I don't agree with that because we had a group here in Huntsville that got together and helped people during the pandemic vote by mail or we actually collected some of their vote-by-mail and hand-carry to the courthouse for them. And that was a large group of people who simply could not have voted otherwise.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker agrees with a point made by Christina.
 2. They disagree with the idea of only physically voting in person.
@@ -996,406 +1037,428 @@
 5. The speaker suggests that this group of people would not have been able to vote without this assistance.</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="28" ht="12.5" customHeight="1">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="n">
         <v>48783</v>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>"17:58"</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t>I totally agree with everything you just said to make you feel bad for us.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>27</v>
-      </c>
+      <c r="E28" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F28" s="6" t="n"/>
     </row>
     <row r="29" ht="12.5" customHeight="1">
-      <c r="A29" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="A29" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>"18:08"</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>28</v>
-      </c>
+      <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F29" s="6" t="n"/>
     </row>
     <row r="30" ht="12.5" customHeight="1">
-      <c r="A30" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="A30" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>"18:08"</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>29</v>
-      </c>
+      <c r="D30" s="6" t="n"/>
+      <c r="E30" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F30" s="6" t="n"/>
     </row>
     <row r="31" ht="12.5" customHeight="1">
-      <c r="A31" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="A31" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
         <is>
           <t>"18:08"</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t>Yes, I agree with her. There are some people who are unable to get to the to the polls and are disabled and they need help. As long as long as everything is legal, and everything is within the range of not being fraud or anything. I think that should be allowed.</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person agrees with the idea that some people are unable to get to the polls and are in need of assistance.
 2. They specify that the people in question are disabled.
 3. They emphasize the importance of legality, stating that as long as everything is legal and not fraudulent, assistance should be allowed.</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="32" ht="12.5" customHeight="1">
-      <c r="A32" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="A32" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C32" s="6" t="inlineStr">
         <is>
           <t>"18:08"</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>31</v>
-      </c>
+      <c r="D32" s="6" t="n"/>
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F32" s="6" t="n"/>
     </row>
     <row r="33" ht="12.5" customHeight="1">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="n">
         <v>9870</v>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="C33" s="6" t="inlineStr">
         <is>
           <t>"18:48"</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="D33" s="6" t="inlineStr">
         <is>
           <t>I agree because 2016 and 17. I was in ICU and a hospital bed at home to where I could not get out and vote. So I think that's, you know, if you're eligible, you should be able to do that.</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>32</v>
-      </c>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F33" s="6" t="n"/>
     </row>
     <row r="34" ht="12.5" customHeight="1">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="n">
         <v>10150</v>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="C34" s="6" t="inlineStr">
         <is>
           <t>"19:07"</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>33</v>
-      </c>
+      <c r="D34" s="6" t="n"/>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="n"/>
     </row>
     <row r="35" ht="12.5" customHeight="1">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="n">
         <v>10150</v>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="C35" s="6" t="inlineStr">
         <is>
           <t>"19:07"</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>34</v>
-      </c>
+      <c r="D35" s="6" t="n"/>
+      <c r="E35" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F35" s="6" t="n"/>
     </row>
     <row r="36" ht="12.5" customHeight="1">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="n">
         <v>10150</v>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="C36" s="6" t="inlineStr">
         <is>
           <t>"19:07"</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>35</v>
-      </c>
+      <c r="D36" s="6" t="n"/>
+      <c r="E36" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F36" s="6" t="n"/>
     </row>
     <row r="37" ht="12.5" customHeight="1">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="n">
         <v>48701</v>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="C37" s="6" t="inlineStr">
         <is>
           <t>"19:40"</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="D37" s="6" t="inlineStr">
         <is>
           <t>Just to touch upon some of the other ones, too. I think the one about requiring, take that, that you receive the ballots by election day in theory is good, but then I feel like that could also cause confusion because, you know, what? Have they don't, you don't know how long it's going to take to get it in to make sure it's received by election day. So maybe if there was a clear like in by like one week before election day, something like that, then I would be in favor of that one.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The argument in favor of requiring ballots to be received by election day is good in theory.
 2. However, this rule could cause confusion as it may be unclear how long it will take for a ballot to be received by election day.
 3. A possible solution to this issue is to require ballots to be received one week before election day.
-4. The author supports this revised rule.</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>36</v>
+4. The speaker supports this revised rule.</t>
+        </is>
       </c>
     </row>
     <row r="38" ht="12.5" customHeight="1">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="C38" s="6" t="inlineStr">
         <is>
           <t>"20:11"</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="D38" s="6" t="inlineStr">
         <is>
           <t>I agree with that because we're having awful problems with our mail. Right now, I order something and it says, it'll be here in three days and it takes up to 10 days to get here. I've mailed letters across town that take two weeks. So I'm not sure how you would put a deadline on people, you know, that give them some leeway. I'm going to jump ahead to the having the video cameras at the election machines. That's I think that's not an excuse me, the collection boxes.</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker is having problems with their mail, with deliveries taking up to 10 days when they should only take three.
 2. The speaker has also experienced local mail taking two weeks to be delivered.
 3. The speaker is unsure how deadlines could be put in place for mail with some leeway.
-4. The speaker brings up the idea of having video cameras at election machine collection boxes.</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>37</v>
+4. The speaker then moves on to discussing the idea of having video cameras at election machine collection boxes.</t>
+        </is>
       </c>
     </row>
     <row r="39" ht="12.5" customHeight="1">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="C39" s="6" t="inlineStr">
         <is>
           <t>"20:11"</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="D39" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I don't think that's necessary, we voted by mail once here. Again, during the pandemic and we had to jump through hoops, put things in a special envelope coelom, certain way. I just don't see that there would be that much issue of people doing the wrong thing and getting</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person thinks voting by mail does not require much effort, as they have done it before during a pandemic.
 2. They mention that there were specific procedures to follow, such as using a special envelope.
 3. The person does not believe that there would be a significant issue of people making mistakes while voting by mail.</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>38</v>
-      </c>
     </row>
     <row r="40" ht="12.5" customHeight="1">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="n">
         <v>48783</v>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="C40" s="6" t="inlineStr">
         <is>
           <t>"20:56"</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>39</v>
-      </c>
+      <c r="D40" s="6" t="n"/>
+      <c r="E40" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F40" s="6" t="n"/>
     </row>
     <row r="41" ht="12.5" customHeight="1">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="n">
         <v>48783</v>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="C41" s="6" t="inlineStr">
         <is>
           <t>"20:56"</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="D41" s="6" t="inlineStr">
         <is>
           <t>Yeah, I think they look really quick. I will make sure they get it.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>40</v>
-      </c>
+      <c r="E41" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F41" s="6" t="n"/>
     </row>
     <row r="42" ht="12.5" customHeight="1">
-      <c r="A42" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="A42" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
         <is>
           <t>"21:09"</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>41</v>
-      </c>
+      <c r="D42" s="6" t="n"/>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F42" s="6" t="n"/>
     </row>
     <row r="43" ht="12.5" customHeight="1">
-      <c r="A43" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="A43" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
         <is>
           <t>"21:09"</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>42</v>
-      </c>
+      <c r="D43" s="6" t="n"/>
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F43" s="6" t="n"/>
     </row>
     <row r="44" ht="12.5" customHeight="1">
-      <c r="A44" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="A44" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C44" s="6" t="inlineStr">
         <is>
           <t>"21:27"</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="D44" s="6" t="inlineStr">
         <is>
           <t>Where Catherine?</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>43</v>
-      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F44" s="6" t="n"/>
     </row>
     <row r="45" ht="12.5" customHeight="1">
-      <c r="A45" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="A45" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
         <is>
           <t>"21:27"</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="D45" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> What's my turn at any rate? I do agree with the email issue, I've had law. So problems with the mail,</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker wants to know what their turn is.
 2. The speaker agrees with the issue about email.
@@ -1403,666 +1466,698 @@
 4. The speaker has had problems with mail.</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>44</v>
-      </c>
     </row>
     <row r="46" ht="12.5" customHeight="1">
-      <c r="A46" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="A46" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C46" s="6" t="inlineStr">
         <is>
           <t>"21:27"</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>45</v>
-      </c>
+      <c r="D46" s="6" t="n"/>
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F46" s="6" t="n"/>
     </row>
     <row r="47" ht="12.5" customHeight="1">
-      <c r="A47" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="A47" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
         <is>
           <t>"21:27"</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="D47" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> and I think that, as long as the mail is supposed,</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>46</v>
-      </c>
+      <c r="E47" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F47" s="6" t="n"/>
     </row>
     <row r="48" ht="12.5" customHeight="1">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="C48" s="6" t="inlineStr">
         <is>
           <t>"22:02"</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="D48" s="6" t="inlineStr">
         <is>
           <t>What do you guys think about allowing each state to set their own standards? I would understand States having some control, but I think we had need to have like an umbrella that sets the standard for the major parts of the voting and then the states have the opportunity to tweak that a little bit based on what they need.</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Allowing individual states to establish their own standards is a topic of discussion.
 2. There is acknowledgement that states should have some control over voting standards.
-3. However, there is a suggestion for an overarching standard at the national level for major aspects of voting.
+3. However, there is a suggestion that there should be a uniform standard at the national level for major aspects of voting.
 4. States would then have the flexibility to modify these standardized elements to suit their specific needs.</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="49" ht="12.5" customHeight="1">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="C49" s="6" t="inlineStr">
         <is>
           <t>"22:23"</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="D49" s="6" t="inlineStr">
         <is>
           <t>I definitely don't think the state should be able to have be able to change it, and make it to their own needs. I think it should be Universal.</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The state should not have the ability to change the subject to their own needs.
 2. The subject should be universal and not subject to state modification.</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>48</v>
-      </c>
     </row>
     <row r="50" ht="12.5" customHeight="1">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="n">
         <v>48783</v>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="C50" s="6" t="inlineStr">
         <is>
           <t>"22:33"</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="D50" s="6" t="inlineStr">
         <is>
           <t>Get me to the universal. I totally agree with that.</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>49</v>
-      </c>
+      <c r="E50" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F50" s="6" t="n"/>
     </row>
     <row r="51" ht="12.5" customHeight="1">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="n">
         <v>10150</v>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="C51" s="6" t="inlineStr">
         <is>
           <t>"22:40"</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>50</v>
-      </c>
+      <c r="D51" s="6" t="n"/>
+      <c r="E51" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F51" s="6" t="n"/>
     </row>
     <row r="52" ht="12.5" customHeight="1">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6" t="n">
         <v>10150</v>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="C52" s="6" t="inlineStr">
         <is>
           <t>"22:40"</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>51</v>
-      </c>
+      <c r="D52" s="6" t="n"/>
+      <c r="E52" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F52" s="6" t="n"/>
     </row>
     <row r="53" ht="12.5" customHeight="1">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="C53" s="6" t="inlineStr">
         <is>
           <t>"22:56"</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="D53" s="6" t="inlineStr">
         <is>
           <t>Jay, if you're talking I can't hear you at all.</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>52</v>
-      </c>
+      <c r="E53" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F53" s="6" t="n"/>
     </row>
     <row r="54" ht="12.5" customHeight="1">
-      <c r="A54" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="A54" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C54" s="6" t="inlineStr">
         <is>
           <t>"23:05"</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>53</v>
-      </c>
+      <c r="D54" s="6" t="n"/>
+      <c r="E54" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F54" s="6" t="n"/>
     </row>
     <row r="55" ht="12.5" customHeight="1">
-      <c r="A55" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="A55" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
         <is>
           <t>"23:05"</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>54</v>
-      </c>
+      <c r="D55" s="6" t="n"/>
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F55" s="6" t="n"/>
     </row>
     <row r="56" ht="12.5" customHeight="1">
-      <c r="A56" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="A56" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C56" s="6" t="inlineStr">
         <is>
           <t>"23:05"</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="D56" s="6" t="inlineStr">
         <is>
           <t>Veteran Trucking.</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>55</v>
-      </c>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F56" s="6" t="n"/>
     </row>
     <row r="57" ht="12.5" customHeight="1">
-      <c r="A57" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="A57" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C57" s="6" t="inlineStr">
         <is>
           <t>"23:05"</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="D57" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Well actually, it's Max's speaking now, but any rate I do agree with you guys about the fact that the states should not be in control. It should be an oval all blanket umbrella over all the states. And yes, a lot of states needed to tweak it. According to how their state is set up, but I don't think either party should be in charge.</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>56</v>
-      </c>
+      <c r="E57" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F57" s="6" t="n"/>
     </row>
     <row r="58" ht="12.5" customHeight="1">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6" t="n">
         <v>48783</v>
       </c>
-      <c r="B58" s="4" t="inlineStr">
+      <c r="C58" s="6" t="inlineStr">
         <is>
           <t>"24:13"</t>
         </is>
       </c>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="D58" s="6" t="inlineStr">
         <is>
           <t>After the last election, I don't think the state should be having anything to say about it in really, it should be National.</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker's opinion is that the state should not have a say in elections.
 2. The speaker believes that election control should be at the national level.
 3. The speaker's statement implies a belief that elections should be uniform and centralized, rather than being managed by individual states.</t>
         </is>
       </c>
-      <c r="F58" t="n">
-        <v>57</v>
-      </c>
     </row>
     <row r="59" ht="12.5" customHeight="1">
-      <c r="A59" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="A59" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C59" s="6" t="inlineStr">
         <is>
           <t>"25:37"</t>
         </is>
       </c>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="D59" s="6" t="inlineStr">
         <is>
           <t>Yes, I think everyone should should have legal ID and that way everybody knows that everybody is a citizen and has the right to vote. She'd have a picture on it so everybody knows that this is that person and I think everyone would feel comfortable knowing that that they've provided the proper information to the government saying that they are a citizen and due to the fact that they've actually went in and put in person and had their picture taken.</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>58</v>
-      </c>
+      <c r="E59" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F59" s="6" t="n"/>
     </row>
     <row r="60" ht="12.5" customHeight="1">
-      <c r="A60" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B60" s="4" t="inlineStr">
+      <c r="A60" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C60" s="6" t="inlineStr">
         <is>
           <t>"25:37"</t>
         </is>
       </c>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="D60" s="6" t="inlineStr">
         <is>
           <t>You know who this person is. And I believe that that should be sufficient for allowing people to vote.</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>59</v>
-      </c>
+      <c r="E60" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F60" s="6" t="n"/>
     </row>
     <row r="61" ht="12.5" customHeight="1">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="n">
         <v>48707</v>
       </c>
-      <c r="B61" s="4" t="inlineStr">
+      <c r="C61" s="6" t="inlineStr">
         <is>
           <t>"26:16"</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>60</v>
-      </c>
+      <c r="D61" s="6" t="n"/>
+      <c r="E61" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F61" s="6" t="n"/>
     </row>
     <row r="62" ht="12.5" customHeight="1">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="n">
         <v>48707</v>
       </c>
-      <c r="B62" s="4" t="inlineStr">
+      <c r="C62" s="6" t="inlineStr">
         <is>
           <t>"26:16"</t>
         </is>
       </c>
-      <c r="C62" s="4" t="inlineStr">
+      <c r="D62" s="6" t="inlineStr">
         <is>
           <t>I agree with that. And there's nothing wrong with having a federal ID for voting. I've felt like that would be a good idea for years, free for a long time. Now, it's just, it's just, you know, everybody would be legal. You have your own ID. You have your like he's like Matt said, you know, you take care of, you know, the the legitimate legitimacy of the, of your vote.</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>61</v>
-      </c>
+      <c r="E62" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F62" s="6" t="n"/>
     </row>
     <row r="63" ht="12.5" customHeight="1">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B63" s="4" t="inlineStr">
+      <c r="C63" s="6" t="inlineStr">
         <is>
           <t>"26:44"</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>62</v>
-      </c>
+      <c r="D63" s="6" t="n"/>
+      <c r="E63" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F63" s="6" t="n"/>
     </row>
     <row r="64" ht="12.5" customHeight="1">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B64" s="4" t="inlineStr">
+      <c r="C64" s="6" t="inlineStr">
         <is>
           <t>"26:44"</t>
         </is>
       </c>
-      <c r="C64" s="4" t="inlineStr">
+      <c r="D64" s="6" t="inlineStr">
         <is>
           <t>I agree with needing a photo ID but I think there needs to be some follow-up on that. I know here in Alabama, they closed several drivers license offices in Central and Southern Alabama, just prior to the election. So it was impossible for a large number of people to actually get an ID in time for the election. They had to travel a couple hours to get one, and it wasn't always an easy case.</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker agrees with the need for a photo ID to vote.
 2. However, the speaker thinks there should be follow-up actions regarding this requirement.
 3. In Alabama, several drivers license offices in Central and Southern Alabama were closed before the election.
 4. This closure made it impossible for many people to get an ID in time for the election.
-5. People had to travel a few hours to get an ID, and it was not always easy to do so.</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>63</v>
+5. People had to travel a few hours to get an ID, and it was not always easy.</t>
+        </is>
       </c>
     </row>
     <row r="65" ht="12.5" customHeight="1">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B65" s="4" t="inlineStr">
+      <c r="C65" s="6" t="inlineStr">
         <is>
           <t>"27:14"</t>
         </is>
       </c>
-      <c r="C65" s="4" t="inlineStr">
+      <c r="D65" s="6" t="inlineStr">
         <is>
           <t>I was just wondering, if anybody knows if that's a state-by-state rule because I was under the impression that in Virginia and DC, you had to have a photo ID to vote.</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The speaker is seeking information about voting requirements.
-2. They want to know if the requirement of having a photo ID to vote is specific to each state or a general rule.
-3. The speaker mentions Virginia and DC as the states they are particularly interested in.</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>64</v>
+      <c r="F65" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The speaker is unsure about voting ID requirements.
+2. They want to know if the requirement varies by state.
+3. The speaker mentions that in Virginia and DC, a photo ID is needed to vote.</t>
+        </is>
       </c>
     </row>
     <row r="66" ht="12.5" customHeight="1">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6" t="n">
         <v>48707</v>
       </c>
-      <c r="B66" s="4" t="inlineStr">
+      <c r="C66" s="6" t="inlineStr">
         <is>
           <t>"27:29"</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>65</v>
-      </c>
+      <c r="D66" s="6" t="n"/>
+      <c r="E66" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F66" s="6" t="n"/>
     </row>
     <row r="67" ht="12.5" customHeight="1">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="n">
         <v>48707</v>
       </c>
-      <c r="B67" s="4" t="inlineStr">
+      <c r="C67" s="6" t="inlineStr">
         <is>
           <t>"27:29"</t>
         </is>
       </c>
-      <c r="C67" s="4" t="inlineStr">
+      <c r="D67" s="6" t="inlineStr">
         <is>
           <t>Here in Ohio, you have to have a state ID to vote. Yes.</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>66</v>
-      </c>
+      <c r="E67" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F67" s="6" t="n"/>
     </row>
     <row r="68" ht="12.5" customHeight="1">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="n">
         <v>48783</v>
       </c>
-      <c r="B68" s="4" t="inlineStr">
+      <c r="C68" s="6" t="inlineStr">
         <is>
           <t>"27:37"</t>
         </is>
       </c>
-      <c r="C68" s="4" t="inlineStr">
+      <c r="D68" s="6" t="inlineStr">
         <is>
           <t>I had to go down to the Vault and officer put my ID and otherwise I couldn't vote by mail.</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>67</v>
-      </c>
+      <c r="E68" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F68" s="6" t="n"/>
     </row>
     <row r="69" ht="12.5" customHeight="1">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B69" s="4" t="inlineStr">
+      <c r="C69" s="6" t="inlineStr">
         <is>
           <t>"27:50"</t>
         </is>
       </c>
-      <c r="C69" s="4" t="inlineStr">
+      <c r="D69" s="6" t="inlineStr">
         <is>
           <t>Yeah, you have to have an ID here in Alabama, too.</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>68</v>
-      </c>
+      <c r="E69" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F69" s="6" t="n"/>
     </row>
     <row r="70" ht="12.5" customHeight="1">
-      <c r="A70" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B70" s="4" t="inlineStr">
+      <c r="A70" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C70" s="6" t="inlineStr">
         <is>
           <t>"27:58"</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>69</v>
-      </c>
+      <c r="D70" s="6" t="n"/>
+      <c r="E70" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F70" s="6" t="n"/>
     </row>
     <row r="71" ht="12.5" customHeight="1">
-      <c r="A71" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B71" s="4" t="inlineStr">
+      <c r="A71" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C71" s="6" t="inlineStr">
         <is>
           <t>"27:58"</t>
         </is>
       </c>
-      <c r="C71" s="4" t="inlineStr">
+      <c r="D71" s="6" t="inlineStr">
         <is>
           <t>Yeah, I didn't know that there were areas where people were being pretty much what you were saying this one young ladies about them closing down the, the motor vehicle locations, I could see what kind of stand how that would turn into a huge problem. Then I think the book need to go back to maybe that idea of allowing people to</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>70</v>
-      </c>
+      <c r="E71" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F71" s="6" t="n"/>
     </row>
     <row r="72" ht="12.5" customHeight="1">
-      <c r="A72" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B72" s="4" t="inlineStr">
+      <c r="A72" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C72" s="6" t="inlineStr">
         <is>
           <t>"27:58"</t>
         </is>
       </c>
-      <c r="C72" s="4" t="inlineStr">
+      <c r="D72" s="6" t="inlineStr">
         <is>
           <t>to go to the internet and register to vote.</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>71</v>
-      </c>
+      <c r="E72" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F72" s="6" t="n"/>
     </row>
     <row r="73" ht="12.5" customHeight="1">
-      <c r="A73" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B73" s="4" t="inlineStr">
+      <c r="A73" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
         <is>
           <t>"27:58"</t>
         </is>
       </c>
-      <c r="C73" s="4" t="inlineStr">
+      <c r="D73" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Unfortunately, the only problem with that is, I still feel that a person needs to show up in person, physically and have their picture taken, so that this person is known to be that person. And that's basically how I feel about that.</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>72</v>
-      </c>
+      <c r="E73" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F73" s="6" t="n"/>
     </row>
     <row r="74" ht="12.5" customHeight="1">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B74" s="4" t="inlineStr">
+      <c r="C74" s="6" t="inlineStr">
         <is>
           <t>"28:43"</t>
         </is>
       </c>
-      <c r="C74" s="4" t="inlineStr">
+      <c r="D74" s="6" t="inlineStr">
         <is>
           <t>Mad. I do feel like if that's that could be a good option and if that was the case, then why can't we just do what we do with the passport machines and scan your face. When you go in to vote and that way everything is on record. Brings up. You have all the information you put in is the same as flying. So it doesn't seem like that would be too hard to transition over because you would still be just walking into a booth. Have your photo taken and then putting in your information.</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The idea of using facial recognition technology for voting is proposed.
 2. This would involve scanning the voter's face at the voting booth.
@@ -2071,407 +2166,431 @@
 5. Transitioning to this system is seen as feasible since it would only require voters to walk into a booth, have their photo taken, and input their information.</t>
         </is>
       </c>
-      <c r="F74" t="n">
-        <v>73</v>
-      </c>
     </row>
     <row r="75" ht="12.5" customHeight="1">
-      <c r="A75" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B75" s="4" t="inlineStr">
+      <c r="A75" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
         <is>
           <t>"29:15"</t>
         </is>
       </c>
-      <c r="C75" s="4" t="inlineStr">
+      <c r="D75" s="6" t="inlineStr">
         <is>
           <t>What's the word about this deal with a spoil? The individual who said that you had a good two hours to find a place to actually register and get the vote. And that very disturbing, it seems like the state could actually close down a whole bunch of places and people wouldn't have any options as to getting rich to it. That's really upsetting. I don't like that idea of them closing down locations where people can register to vote.</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>74</v>
-      </c>
+      <c r="E75" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F75" s="6" t="n"/>
     </row>
     <row r="76" ht="12.5" customHeight="1">
-      <c r="A76" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B76" s="4" t="inlineStr">
+      <c r="A76" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C76" s="6" t="inlineStr">
         <is>
           <t>"29:15"</t>
         </is>
       </c>
-      <c r="C76" s="4" t="inlineStr">
+      <c r="D76" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I think maybe that the idea of maybe going to any government agency, like the it was proposed in one of the book that I read the proposal was that if you went to any official federal or government agency, you can actually register their because you were in person you were there you physically physically, see you so they can verify who you are. And, you know, I think that might be a better option to this just going to the department of motor.</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>75</v>
-      </c>
+      <c r="E76" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F76" s="6" t="n"/>
     </row>
     <row r="77" ht="12.5" customHeight="1">
-      <c r="A77" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B77" s="4" t="inlineStr">
+      <c r="A77" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
         <is>
           <t>"29:15"</t>
         </is>
       </c>
-      <c r="C77" s="4" t="inlineStr">
+      <c r="D77" s="6" t="inlineStr">
         <is>
           <t>Motor vehicle.</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>76</v>
-      </c>
+      <c r="E77" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F77" s="6" t="n"/>
     </row>
     <row r="78" ht="12.5" customHeight="1">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B78" s="4" t="inlineStr">
+      <c r="C78" s="6" t="inlineStr">
         <is>
           <t>"29:45"</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>77</v>
-      </c>
+      <c r="D78" s="6" t="n"/>
+      <c r="E78" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F78" s="6" t="n"/>
     </row>
     <row r="79" ht="12.5" customHeight="1">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B79" s="4" t="inlineStr">
+      <c r="C79" s="6" t="inlineStr">
         <is>
           <t>"29:45"</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>78</v>
-      </c>
+      <c r="D79" s="6" t="n"/>
+      <c r="E79" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F79" s="6" t="n"/>
     </row>
     <row r="80" ht="12.5" customHeight="1">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B80" s="4" t="inlineStr">
+      <c r="C80" s="6" t="inlineStr">
         <is>
           <t>"29:45"</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>79</v>
-      </c>
+      <c r="D80" s="6" t="n"/>
+      <c r="E80" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F80" s="6" t="n"/>
     </row>
     <row r="81" ht="12.5" customHeight="1">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B81" s="4" t="inlineStr">
+      <c r="C81" s="6" t="inlineStr">
         <is>
           <t>"29:45"</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>80</v>
-      </c>
+      <c r="D81" s="6" t="n"/>
+      <c r="E81" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F81" s="6" t="n"/>
     </row>
     <row r="82" ht="12.5" customHeight="1">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B82" s="4" t="inlineStr">
+      <c r="C82" s="6" t="inlineStr">
         <is>
           <t>"30:15"</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>81</v>
-      </c>
+      <c r="D82" s="6" t="n"/>
+      <c r="E82" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F82" s="6" t="n"/>
     </row>
     <row r="83" ht="12.5" customHeight="1">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B83" s="4" t="inlineStr">
+      <c r="C83" s="6" t="inlineStr">
         <is>
           <t>"30:15"</t>
         </is>
       </c>
-      <c r="C83" s="4" t="inlineStr">
+      <c r="D83" s="6" t="inlineStr">
         <is>
           <t>Sorry, I'm trying to get you off at. I think it's crazy that the people would have to travel over two hours to register and vote. That's absolutely ridiculous. People don't have. That means everyone is having vehicle it. They don't have the money to go, Uber, or find everyone doesn't public transportation, and I think that should be part of the rules that are not State set, its Universal. There needs to be places to vote that are close enough for everyone to access them.</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker finds it unreasonable that people have to travel over two hours to register and vote.
 2. They believe this situation is ridiculous.
-3. The speaker thinks that people lack access to vehicles and public transportation to enable them to travel to voting locations.
-4. The speaker suggests that voting places should be close enough for everyone to access them.
-5. The speaker believes that rules regarding voting places should be universal and not set by individual states.</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>82</v>
+3. The speaker thinks that people lack access to vehicles or public transportation for travel to voting locations.
+4. The speaker believes that the cost of transportation is a barrier for people to vote.
+5. The speaker thinks that voting locations should be close enough for everyone to access them.
+6. The speaker believes that rules regarding voting location distances should be universal, not set by individual states.</t>
+        </is>
       </c>
     </row>
     <row r="84" ht="12.5" customHeight="1">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="6" t="n">
         <v>48783</v>
       </c>
-      <c r="B84" s="4" t="inlineStr">
+      <c r="C84" s="6" t="inlineStr">
         <is>
           <t>"30:46"</t>
         </is>
       </c>
-      <c r="C84" s="4" t="inlineStr">
+      <c r="D84" s="6" t="inlineStr">
         <is>
           <t>Stay to make it a height of the vote on purpose. It's getting really sick and Trust have two leaders of this States.</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>83</v>
-      </c>
+      <c r="E84" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F84" s="6" t="n"/>
     </row>
     <row r="85" ht="12.5" customHeight="1">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="6" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B85" s="4" t="inlineStr">
+      <c r="C85" s="6" t="inlineStr">
         <is>
           <t>"30:57"</t>
         </is>
       </c>
-      <c r="C85" s="4" t="inlineStr">
+      <c r="D85" s="6" t="inlineStr">
         <is>
           <t>Yeah, it was definitely done on purpose. If you looked at the maps of where it was done, it was some of the poor areas and it was really disturbing.</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The action of defacing public properties was done on purpose.
-2. The areas that were targeted were mainly poor neighborhoods.
-3. This action of vandalism found in the maps was disturbing.</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>84</v>
+      <c r="F85" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The action of vandalism was done intentionally.
+2. It was not a random act, but targeted specific locations.
+3. The areas that were vandalized were mapped.
+4. The vandalism occurred in some of the poorer areas of the region.
+5. This intentional targeting of poor areas is disturbing.</t>
+        </is>
       </c>
     </row>
     <row r="86" ht="12.5" customHeight="1">
-      <c r="A86" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B86" s="4" t="inlineStr">
+      <c r="A86" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C86" s="6" t="inlineStr">
         <is>
           <t>"31:16"</t>
         </is>
       </c>
-      <c r="C86" s="4" t="inlineStr">
+      <c r="D86" s="6" t="inlineStr">
         <is>
           <t>Terry, thank you for the information. I really didn't know that, then not at, I hear it. Thank you.</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>85</v>
-      </c>
+      <c r="E86" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F86" s="6" t="n"/>
     </row>
     <row r="87" ht="12.5" customHeight="1">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B87" s="4" t="inlineStr">
+      <c r="C87" s="6" t="inlineStr">
         <is>
           <t>"31:28"</t>
         </is>
       </c>
-      <c r="C87" s="4" t="inlineStr">
+      <c r="D87" s="6" t="inlineStr">
         <is>
           <t>It's a story. I wish I didn't have to share.</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>86</v>
-      </c>
+      <c r="E87" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F87" s="6" t="n"/>
     </row>
     <row r="88" ht="12.5" customHeight="1">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="6" t="n">
         <v>48783</v>
       </c>
-      <c r="B88" s="4" t="inlineStr">
+      <c r="C88" s="6" t="inlineStr">
         <is>
           <t>"31:41"</t>
         </is>
       </c>
-      <c r="C88" s="4" t="inlineStr">
+      <c r="D88" s="6" t="inlineStr">
         <is>
           <t>I don't even trust the hack. My Converse members to do the right thing anymore, because they keep making their own rules of people to speak the truth. And everything else is really getting scary to me.</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>87</v>
-      </c>
+      <c r="E88" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F88" s="6" t="n"/>
     </row>
     <row r="89" ht="12.5" customHeight="1">
-      <c r="A89" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B89" s="4" t="inlineStr">
+      <c r="A89" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C89" s="6" t="inlineStr">
         <is>
           <t>"32:25"</t>
         </is>
       </c>
-      <c r="C89" s="4" t="inlineStr">
+      <c r="D89" s="6" t="inlineStr">
         <is>
           <t>Yes, I definitely need to speak on this issue. Unfortunately, a large percentage of those who are in prison. Are black. Males are assistantship is based on the principle that, if you do the crime, you pay the time you to pay your time and I think, when you paid your time to society, you should be reintegrated into society.</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>88</v>
-      </c>
+      <c r="E89" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F89" s="6" t="n"/>
     </row>
     <row r="90" ht="12.5" customHeight="1">
-      <c r="A90" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B90" s="4" t="inlineStr">
+      <c r="A90" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C90" s="6" t="inlineStr">
         <is>
           <t>"32:25"</t>
         </is>
       </c>
-      <c r="C90" s="4" t="inlineStr">
+      <c r="D90" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Now for those who come, I come back out and decide that they want to do something other than what Society wants to do, then they can't vote anyway because they're going to go back to jail and then on top of that they talk about people like this need to pay Society more and I Bridge understand what more. You need two pesos</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>89</v>
-      </c>
+      <c r="E90" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F90" s="6" t="n"/>
     </row>
     <row r="91" ht="12.5" customHeight="1">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B91" s="4" t="inlineStr">
+      <c r="C91" s="6" t="inlineStr">
         <is>
           <t>"33:10"</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>90</v>
-      </c>
+      <c r="D91" s="6" t="n"/>
+      <c r="E91" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F91" s="6" t="n"/>
     </row>
     <row r="92" ht="12.5" customHeight="1">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B92" s="4" t="inlineStr">
+      <c r="C92" s="6" t="inlineStr">
         <is>
           <t>"33:10"</t>
         </is>
       </c>
-      <c r="C92" s="4" t="inlineStr">
+      <c r="D92" s="6" t="inlineStr">
         <is>
           <t>I absolutely agree mad. I think that whatever you went to prison for. Once you've done your time, you paid your dues and you need to be accepted back into society with all the rights until you prove. Otherwise.</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker agrees with the point made by 'mad'.
 2. They believe that whatever crime someone has committed and served time for, they should be accepted back into society with all their rights.
@@ -2479,181 +2598,190 @@
 4. They argue that a person should not be further penalized or have their rights restricted unless they prove otherwise.</t>
         </is>
       </c>
-      <c r="F92" t="n">
-        <v>91</v>
-      </c>
     </row>
     <row r="93" ht="12.5" customHeight="1">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B93" s="4" t="inlineStr">
+      <c r="C93" s="6" t="inlineStr">
         <is>
           <t>"33:10"</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>92</v>
-      </c>
+      <c r="D93" s="6" t="n"/>
+      <c r="E93" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F93" s="6" t="n"/>
     </row>
     <row r="94" ht="12.5" customHeight="1">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B94" s="4" t="inlineStr">
+      <c r="C94" s="6" t="inlineStr">
         <is>
           <t>"33:10"</t>
         </is>
       </c>
-      <c r="C94" s="4" t="inlineStr">
+      <c r="D94" s="6" t="inlineStr">
         <is>
           <t>Computers Frozen.</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>93</v>
-      </c>
+      <c r="E94" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F94" s="6" t="n"/>
     </row>
     <row r="95" ht="12.5" customHeight="1">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B95" s="4" t="inlineStr">
+      <c r="C95" s="6" t="inlineStr">
         <is>
           <t>"33:10"</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>94</v>
-      </c>
+      <c r="D95" s="6" t="n"/>
+      <c r="E95" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F95" s="6" t="n"/>
     </row>
     <row r="96" ht="12.5" customHeight="1">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B96" s="4" t="inlineStr">
+      <c r="C96" s="6" t="inlineStr">
         <is>
           <t>"33:10"</t>
         </is>
       </c>
-      <c r="C96" s="4" t="inlineStr">
+      <c r="D96" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> My computer just froze. Sorry, my computer froze up.</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>95</v>
-      </c>
+      <c r="E96" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F96" s="6" t="n"/>
     </row>
     <row r="97" ht="12.5" customHeight="1">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="6" t="n">
         <v>9870</v>
       </c>
-      <c r="B97" s="4" t="inlineStr">
+      <c r="C97" s="6" t="inlineStr">
         <is>
           <t>"33:42"</t>
         </is>
       </c>
-      <c r="C97" s="4" t="inlineStr">
+      <c r="D97" s="6" t="inlineStr">
         <is>
           <t>Yes, I agree with that. I think you did the crime, you pay the price to you should, you know, get out. And it's hard enough to start over.</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>96</v>
-      </c>
+      <c r="E97" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F97" s="6" t="n"/>
     </row>
     <row r="98" ht="12.5" customHeight="1">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="6" t="n">
         <v>9870</v>
       </c>
-      <c r="B98" s="4" t="inlineStr">
+      <c r="C98" s="6" t="inlineStr">
         <is>
           <t>"33:42"</t>
         </is>
       </c>
-      <c r="C98" s="4" t="inlineStr">
+      <c r="D98" s="6" t="inlineStr">
         <is>
           <t>So I think that would be best.</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>97</v>
-      </c>
+      <c r="E98" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F98" s="6" t="n"/>
     </row>
     <row r="99" ht="12.5" customHeight="1">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="6" t="n">
         <v>48783</v>
       </c>
-      <c r="B99" s="4" t="inlineStr">
+      <c r="C99" s="6" t="inlineStr">
         <is>
           <t>"34:01"</t>
         </is>
       </c>
-      <c r="C99" s="4" t="inlineStr">
+      <c r="D99" s="6" t="inlineStr">
         <is>
           <t>I just kind of wanted them on the once again pad and just because somebody wants to Pardon them, doesn't matter what the outcome of the Aloha crime was some again pride and they shouldn't be out like one from what I see and how</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>98</v>
-      </c>
+      <c r="E99" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F99" s="6" t="n"/>
     </row>
     <row r="100" ht="12.5" customHeight="1">
-      <c r="A100" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B100" s="4" t="inlineStr">
+      <c r="A100" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C100" s="6" t="inlineStr">
         <is>
           <t>"34:33"</t>
         </is>
       </c>
-      <c r="C100" s="4" t="inlineStr">
+      <c r="D100" s="6" t="inlineStr">
         <is>
           <t>Okay, Celina, I agree with you about the pardon thing. It's unfortunately really our system is flawed in many ways. On unfortunately, we have to live with it there. A lot of guys, that actually are a lot of people who actually committed crimes in that are never caught and they're still voting and as long as they get caught, they don't get caught. They can help. They can keep voting until forever. So, you know, the system isn't perfect. But for those that we do catch and they pay their their dues,</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text discusses the issue of flaws in the pardon system.
 2. It is noted that many people who have committed crimes and haven't been caught can still vote.
@@ -2662,83 +2790,84 @@
 5. The focus is on ensuring that those who have paid their dues are able to participate in the voting process.</t>
         </is>
       </c>
-      <c r="F100" t="n">
-        <v>99</v>
-      </c>
     </row>
     <row r="101" ht="12.5" customHeight="1">
-      <c r="A101" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B101" s="4" t="inlineStr">
+      <c r="A101" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C101" s="6" t="inlineStr">
         <is>
           <t>"34:33"</t>
         </is>
       </c>
-      <c r="C101" s="4" t="inlineStr">
+      <c r="D101" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> And you know, unfortunately if we don't let them back into society, this is just gonna go right back out and commit more crimes because they have no. Where else to go. Oh</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The importance of rehabilitation and reintegration of criminals into society is highlighted.
 2. The consequence of not allowing criminals back into society is the likelihood of them committing more crimes.
-3. This is attributed to the fact that they have limited options of where to go after release.</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>100</v>
+3. This is attributed to the fact that they have limited options of where to go after serving their sentence.</t>
+        </is>
       </c>
     </row>
     <row r="102" ht="12.5" customHeight="1">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="6" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B102" s="4" t="inlineStr">
+      <c r="C102" s="6" t="inlineStr">
         <is>
           <t>"36:38"</t>
         </is>
       </c>
-      <c r="C102" s="4" t="inlineStr">
+      <c r="D102" s="6" t="inlineStr">
         <is>
           <t>I thought there already were penalties for deceiving and intimidating voters. I know, at the last election they were talking about how when people are bullying them to not get in that some people were arrested for that. So, is that again a state-by-state? Like, I mean, or because that seems ridiculous that someone could do that and if they were caught get away with it, not that you should do it. Even if you don't</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>101</v>
-      </c>
+      <c r="E102" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F102" s="6" t="n"/>
     </row>
     <row r="103" ht="12.5" customHeight="1">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="6" t="n">
         <v>48707</v>
       </c>
-      <c r="B103" s="4" t="inlineStr">
+      <c r="C103" s="6" t="inlineStr">
         <is>
           <t>"37:11"</t>
         </is>
       </c>
-      <c r="C103" s="4" t="inlineStr">
+      <c r="D103" s="6" t="inlineStr">
         <is>
           <t>Well, I think that, you know, you should be able to go to a voting booth and not be harassed by anybody. I do believe it. You're in Ohio that they have pretty pretty stiff penalties, if they catch you, but they have to catch you but I agree with. I don't think there should be. There should be no political Representatives standing at the doors, trying to sway your vote when you're walking into the door and that type of thing, I think you should.</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Voters should be able to go to a voting booth without harassment.
 2. Ohio has strict penalties for voter harassment.
@@ -2746,53 +2875,54 @@
 4. Voters should be allowed to cast their vote without political influence at the door.</t>
         </is>
       </c>
-      <c r="F103" t="n">
-        <v>102</v>
-      </c>
     </row>
     <row r="104" ht="12.5" customHeight="1">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="6" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="6" t="n">
         <v>48707</v>
       </c>
-      <c r="B104" s="4" t="inlineStr">
+      <c r="C104" s="6" t="inlineStr">
         <is>
           <t>"37:11"</t>
         </is>
       </c>
-      <c r="C104" s="4" t="inlineStr">
+      <c r="D104" s="6" t="inlineStr">
         <is>
           <t>Be able to just go in and do your own vote and not worry about being hassled.</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>103</v>
-      </c>
+      <c r="E104" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F104" s="6" t="n"/>
     </row>
     <row r="105" ht="12.5" customHeight="1">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="6" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="6" t="n">
         <v>48783</v>
       </c>
-      <c r="B105" s="4" t="inlineStr">
+      <c r="C105" s="6" t="inlineStr">
         <is>
           <t>"37:49"</t>
         </is>
       </c>
-      <c r="C105" s="4" t="inlineStr">
+      <c r="D105" s="6" t="inlineStr">
         <is>
           <t>What I like about football for one reason.</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. You get to be part of a community.
 2. There's a lot of strategy involved.
@@ -2802,112 +2932,106 @@
 6. It's a global sport, allowing for cultural exchange.
 7. There are different positions to suit various skills and interests.
 8. Playing football can improve mental health.
-9. The sport promotes teamwork and cooperation.
+9. The sport promotes teamwork and discipline.
 10. There's a sense of accomplishment in improving skills and contributing to a team's success.</t>
         </is>
       </c>
-      <c r="F105" t="n">
-        <v>104</v>
-      </c>
     </row>
     <row r="106" ht="12.5" customHeight="1">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="6" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B106" s="4" t="inlineStr">
+      <c r="C106" s="6" t="inlineStr">
         <is>
           <t>"38:01"</t>
         </is>
       </c>
-      <c r="C106" s="4" t="inlineStr">
+      <c r="D106" s="6" t="inlineStr">
         <is>
           <t>Yeah, I agree with that. I don't know if it's sort of like a misdemeanor and there's not sit sit criminal penalties for it. I don't know what have to read up on that. I'm going to go ahead and jump to the next one. Allowing a representative from political parties, and other groups to act as observers. I don't know that that's completely necessary. I think that's just more polarizing. I think, from the last election, we learned that there were very little problems, actual problems, and they were able to monitor themselves</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F106" s="6" t="n"/>
+    </row>
+    <row r="107" ht="12.5" customHeight="1">
+      <c r="A107" s="6" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="6" t="n">
+        <v>48700</v>
+      </c>
+      <c r="C107" s="6" t="inlineStr">
+        <is>
+          <t>"38:01"</t>
+        </is>
+      </c>
+      <c r="D107" s="6" t="inlineStr">
+        <is>
+          <t>It's just my way of thinking.</t>
+        </is>
+      </c>
+      <c r="E107" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F107" s="6" t="n"/>
+    </row>
+    <row r="108" ht="12.5" customHeight="1">
+      <c r="A108" s="6" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="6" t="n">
+        <v>48701</v>
+      </c>
+      <c r="C108" s="6" t="inlineStr">
+        <is>
+          <t>"38:36"</t>
+        </is>
+      </c>
+      <c r="D108" s="6" t="inlineStr">
+        <is>
+          <t>Yeah, I agree. If and also I feel like once if we allow people from political parties to be observers, or to challenge, we're kind of the leading back to the first problem of, maybe they are going to be intimidating and we want to not have that.</t>
+        </is>
+      </c>
+      <c r="E108" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F108" s="6" t="n"/>
+    </row>
+    <row r="109" ht="12.5" customHeight="1">
+      <c r="A109" s="6" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C109" s="6" t="inlineStr">
+        <is>
+          <t>"38:59"</t>
+        </is>
+      </c>
+      <c r="D109" s="6" t="inlineStr">
+        <is>
+          <t>Yeah, I think it's the issue with the intimidation of when I think there was only really one state that really, we had a problem with that, which was Arizona over these guys, were camping out with your guns near the station, and whatnot. But I think the government, but and handle that, I think there should be some more stirring, a penalties for them doing this. So, This is actually giving people second thoughts on whether they want to go do it or not.</t>
+        </is>
+      </c>
+      <c r="E109" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Uncertainty about the presence of criminal penalties for not fully completing the census.
-2. Disagreement with allowing representatives from political parties and other groups to act as observers during the census process.
-3. Perception that such observer representation is not necessary.
-4. Observation that the previous election had few actual problems, and that self-monitoring was sufficient.
-5. Intention to learn more about the implications of not fully completing the census.</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" ht="12.5" customHeight="1">
-      <c r="A107" s="2" t="n">
-        <v>48700</v>
-      </c>
-      <c r="B107" s="4" t="inlineStr">
-        <is>
-          <t>"38:01"</t>
-        </is>
-      </c>
-      <c r="C107" s="4" t="inlineStr">
-        <is>
-          <t>It's just my way of thinking.</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" ht="12.5" customHeight="1">
-      <c r="A108" s="2" t="n">
-        <v>48701</v>
-      </c>
-      <c r="B108" s="4" t="inlineStr">
-        <is>
-          <t>"38:36"</t>
-        </is>
-      </c>
-      <c r="C108" s="4" t="inlineStr">
-        <is>
-          <t>Yeah, I agree. If and also I feel like once if we allow people from political parties to be observers, or to challenge, we're kind of the leading back to the first problem of, maybe they are going to be intimidating and we want to not have that.</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" ht="12.5" customHeight="1">
-      <c r="A109" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B109" s="4" t="inlineStr">
-        <is>
-          <t>"38:59"</t>
-        </is>
-      </c>
-      <c r="C109" s="4" t="inlineStr">
-        <is>
-          <t>Yeah, I think it's the issue with the intimidation of when I think there was only really one state that really, we had a problem with that, which was Arizona over these guys, were camping out with your guns near the station, and whatnot. But I think the government, but and handle that, I think there should be some more stirring, a penalties for them doing this. So, This is actually giving people second thoughts on whether they want to go do it or not.</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. There was an issue with intimidation in Arizona.
 2. The intimidation occurred when a group of people camped out near a station with guns.
@@ -2917,30 +3041,30 @@
 6. These penalties would make people think twice before engaging in such behavior.</t>
         </is>
       </c>
-      <c r="F109" t="n">
-        <v>108</v>
-      </c>
     </row>
     <row r="110" ht="12.5" customHeight="1">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="6" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B110" s="4" t="inlineStr">
+      <c r="C110" s="6" t="inlineStr">
         <is>
           <t>"40:56"</t>
         </is>
       </c>
-      <c r="C110" s="4" t="inlineStr">
+      <c r="D110" s="6" t="inlineStr">
         <is>
           <t>What jumped out at me was forbidding private foundations to provide financial assistance for conducting elections. That just seems like a huge red flag. Just big problem waiting waiting.</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text discusses private foundations being forbidden to provide financial assistance for conducting elections.
 2. This point is highlighted as a major issue.
@@ -2948,124 +3072,128 @@
 4. The prohibition is seen as a significant problem waiting to happen.</t>
         </is>
       </c>
-      <c r="F110" t="n">
-        <v>109</v>
-      </c>
     </row>
     <row r="111" ht="12.5" customHeight="1">
-      <c r="A111" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B111" s="4" t="inlineStr">
+      <c r="A111" s="6" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C111" s="6" t="inlineStr">
         <is>
           <t>"41:09"</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
-        <v>110</v>
-      </c>
+      <c r="D111" s="6" t="n"/>
+      <c r="E111" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F111" s="6" t="n"/>
     </row>
     <row r="112" ht="12.5" customHeight="1">
-      <c r="A112" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B112" s="4" t="inlineStr">
+      <c r="A112" s="6" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C112" s="6" t="inlineStr">
         <is>
           <t>"41:09"</t>
         </is>
       </c>
-      <c r="C112" s="4" t="inlineStr">
+      <c r="D112" s="6" t="inlineStr">
         <is>
           <t>Yes, no private funding. All that means is that these private in funding organizations are interested in only doing what is good for them. They have no interest in what's good for the public and need to keep their money in their pockets and out of our elections.</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>111</v>
-      </c>
+      <c r="E112" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F112" s="6" t="n"/>
     </row>
     <row r="113" ht="12.5" customHeight="1">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="6" t="n">
         <v>48783</v>
       </c>
-      <c r="B113" s="4" t="inlineStr">
+      <c r="C113" s="6" t="inlineStr">
         <is>
           <t>"41:34"</t>
         </is>
       </c>
-      <c r="C113" s="4" t="inlineStr">
+      <c r="D113" s="6" t="inlineStr">
         <is>
           <t>Yes, getting sick. And all the emails, I get begging me for money to vote somebody on, take somebody away, just getting really out of hand with this money thing. Money should be about the people not money.</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>112</v>
-      </c>
+      <c r="E113" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F113" s="6" t="n"/>
     </row>
     <row r="114" ht="12.5" customHeight="1">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="6" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="6" t="n">
         <v>48707</v>
       </c>
-      <c r="B114" s="4" t="inlineStr">
+      <c r="C114" s="6" t="inlineStr">
         <is>
           <t>"41:47"</t>
         </is>
       </c>
-      <c r="C114" s="4" t="inlineStr">
+      <c r="D114" s="6" t="inlineStr">
         <is>
           <t>Yeah, I think special interest groups should be banned from even getting involved in any kind of election, there should be no special interest money private money and should all be all should be public.</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The user believes special interest groups should be banned from elections.
 2. All money involved in elections should be public, not private.
 3. This includes special interest money and personal money.</t>
         </is>
       </c>
-      <c r="F114" t="n">
-        <v>113</v>
-      </c>
     </row>
     <row r="115" ht="12.5" customHeight="1">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="6" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="6" t="n">
         <v>48783</v>
       </c>
-      <c r="B115" s="4" t="inlineStr">
+      <c r="C115" s="6" t="inlineStr">
         <is>
           <t>"42:06"</t>
         </is>
       </c>
-      <c r="C115" s="4" t="inlineStr">
+      <c r="D115" s="6" t="inlineStr">
         <is>
           <t>I totally agree with that because it's so much money is going to do lobbies bad commercials and lies and it just not right. I'm sick of listening to it.</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Here is the summary of the text you provided:
 1. The speaker agrees that a lot of money is being spent on lobbying, bad commercials, and misinformation.
@@ -3073,332 +3201,345 @@
 3. The speaker is sick of the situation.</t>
         </is>
       </c>
-      <c r="F115" t="n">
-        <v>114</v>
-      </c>
     </row>
     <row r="116" ht="12.5" customHeight="1">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="6" t="n">
         <v>10150</v>
       </c>
-      <c r="B116" s="4" t="inlineStr">
+      <c r="C116" s="6" t="inlineStr">
         <is>
           <t>"42:17"</t>
         </is>
       </c>
-      <c r="C116" s="4" t="inlineStr">
+      <c r="D116" s="6" t="inlineStr">
         <is>
           <t>I want to do a mic check before I start talking. Can you guys hear me?</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>115</v>
-      </c>
+      <c r="E116" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F116" s="6" t="n"/>
     </row>
     <row r="117" ht="12.5" customHeight="1">
-      <c r="A117" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B117" s="4" t="inlineStr">
+      <c r="A117" s="6" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C117" s="6" t="inlineStr">
         <is>
           <t>"42:23"</t>
         </is>
       </c>
-      <c r="C117" s="4" t="inlineStr">
+      <c r="D117" s="6" t="inlineStr">
         <is>
           <t>Yes, we can.</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>116</v>
-      </c>
+      <c r="E117" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F117" s="6" t="n"/>
     </row>
     <row r="118" ht="12.5" customHeight="1">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="6" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="6" t="n">
         <v>10150</v>
       </c>
-      <c r="B118" s="4" t="inlineStr">
+      <c r="C118" s="6" t="inlineStr">
         <is>
           <t>"42:26"</t>
         </is>
       </c>
-      <c r="C118" s="4" t="inlineStr">
+      <c r="D118" s="6" t="inlineStr">
         <is>
           <t>All right excellent. It's like a little while. So yeah, I definitely agree that you know, there should be regular Congressional funding and it kind of going back to her you know a couple topics ago. What I was trying to say on the infrastructure for voting machines, I think that that should be well developed. There are a couple options back in the other category like a paper printout that would be</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>117</v>
-      </c>
+      <c r="E118" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F118" s="6" t="n"/>
     </row>
     <row r="119" ht="12.5" customHeight="1">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="6" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="6" t="n">
         <v>10150</v>
       </c>
-      <c r="B119" s="4" t="inlineStr">
+      <c r="C119" s="6" t="inlineStr">
         <is>
           <t>"42:26"</t>
         </is>
       </c>
-      <c r="C119" s="4" t="inlineStr">
+      <c r="D119" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> emitted, but I think, you know, the voting machines was well-funded well-developed and rolled out across the country in a uniform way, that would be ideal</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>118</v>
-      </c>
+      <c r="E119" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F119" s="6" t="n"/>
     </row>
     <row r="120" ht="12.5" customHeight="1">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="6" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B120" s="4" t="inlineStr">
+      <c r="C120" s="6" t="inlineStr">
         <is>
           <t>"43:09"</t>
         </is>
       </c>
-      <c r="C120" s="4" t="inlineStr">
+      <c r="D120" s="6" t="inlineStr">
         <is>
           <t>but,</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>119</v>
-      </c>
+      <c r="E120" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F120" s="6" t="n"/>
     </row>
     <row r="121" ht="12.5" customHeight="1">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="6" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B121" s="4" t="inlineStr">
+      <c r="C121" s="6" t="inlineStr">
         <is>
           <t>"43:09"</t>
         </is>
       </c>
-      <c r="C121" s="4" t="inlineStr">
+      <c r="D121" s="6" t="inlineStr">
         <is>
           <t>I agree. I think it needs to be and uniformed away and you need to all be equal no matter.</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>120</v>
-      </c>
+      <c r="E121" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F121" s="6" t="n"/>
     </row>
     <row r="122" ht="12.5" customHeight="1">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="6" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B122" s="4" t="inlineStr">
+      <c r="C122" s="6" t="inlineStr">
         <is>
           <t>"43:19"</t>
         </is>
       </c>
-      <c r="C122" s="4" t="inlineStr">
+      <c r="D122" s="6" t="inlineStr">
         <is>
           <t>I totally agree and I'm also going to look at the next item on here about have the voters elect, the chief electoral office has at the state and County levels and make it non partisan. The person who gets that job. I think it. We're just two divided as it is and it just brings up too many issues.</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>121</v>
-      </c>
+      <c r="E122" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F122" s="6" t="n"/>
     </row>
     <row r="123" ht="12.5" customHeight="1">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="6" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="6" t="n">
         <v>48704</v>
       </c>
-      <c r="B123" s="4" t="inlineStr">
+      <c r="C123" s="6" t="inlineStr">
         <is>
           <t>"43:39"</t>
         </is>
       </c>
-      <c r="C123" s="4" t="inlineStr">
+      <c r="D123" s="6" t="inlineStr">
         <is>
           <t>My question is, so how are we going to find someone that's nonpartisan.</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>122</v>
-      </c>
+      <c r="E123" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F123" s="6" t="n"/>
     </row>
     <row r="124" ht="12.5" customHeight="1">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="6" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B124" s="4" t="inlineStr">
+      <c r="C124" s="6" t="inlineStr">
         <is>
           <t>"43:46"</t>
         </is>
       </c>
-      <c r="C124" s="4" t="inlineStr">
+      <c r="D124" s="6" t="inlineStr">
         <is>
           <t>I don't have all the answers.</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>123</v>
-      </c>
+      <c r="E124" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F124" s="6" t="n"/>
     </row>
     <row r="125" ht="12.5" customHeight="1">
-      <c r="A125" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B125" s="4" t="inlineStr">
+      <c r="A125" s="6" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C125" s="6" t="inlineStr">
         <is>
           <t>"43:50"</t>
         </is>
       </c>
-      <c r="C125" s="4" t="inlineStr">
+      <c r="D125" s="6" t="inlineStr">
         <is>
           <t>Yeah, we we all do not have all the answers but the that's true. We're going to how we going to find somebody who's nonpartisan. I guess we'll just have to work on that issue and figure out a way to come up with somebody. That will be like that. We already saw what happens when someone calls the state Secretary and asked him to change the vote. So we don't need any more of that.</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. It is acknowledged that the group does not have all the answers.
-2. There is a need to find a nonpartisan person to address an issue.
-3. The group will need to work on finding this person.
-4. It has been noted that calling a state Secretary to change the vote is not acceptable, as seen in a past instance.</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>124</v>
+2. There is a need to find a nonpartisan person.
+3. The group will need to work on this issue and find a solution.
+4. A reference is made to a previous incident involving the state Secretary and vote manipulation, which the group wants to avoid in the future.</t>
+        </is>
       </c>
     </row>
     <row r="126" ht="12.5" customHeight="1">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="6" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="6" t="n">
         <v>48705</v>
       </c>
-      <c r="B126" s="4" t="inlineStr">
+      <c r="C126" s="6" t="inlineStr">
         <is>
           <t>"44:14"</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>125</v>
-      </c>
+      <c r="D126" s="6" t="n"/>
+      <c r="E126" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F126" s="6" t="n"/>
     </row>
     <row r="127" ht="12.5" customHeight="1">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="6" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B127" s="4" t="inlineStr">
+      <c r="C127" s="6" t="inlineStr">
         <is>
           <t>"44:20"</t>
         </is>
       </c>
-      <c r="C127" s="4" t="inlineStr">
+      <c r="D127" s="6" t="inlineStr">
         <is>
           <t>I sorry beefed up here on me real quickly. I was going to say that one way to keep it a non-partisan as not to allow people to choose not to do not to certify results or something, just because they don't want to, they have to follow the rules.</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>126</v>
-      </c>
+      <c r="E127" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F127" s="6" t="n"/>
     </row>
     <row r="128" ht="12.5" customHeight="1">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="6" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="6" t="n">
         <v>48783</v>
       </c>
-      <c r="B128" s="4" t="inlineStr">
+      <c r="C128" s="6" t="inlineStr">
         <is>
           <t>"44:37"</t>
         </is>
       </c>
-      <c r="C128" s="4" t="inlineStr">
+      <c r="D128" s="6" t="inlineStr">
         <is>
           <t>Total medicine and it's just unbelievable.</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>127</v>
-      </c>
+      <c r="E128" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F128" s="6" t="n"/>
     </row>
     <row r="129" ht="12.5" customHeight="1">
-      <c r="A129" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B129" s="4" t="inlineStr">
+      <c r="A129" s="6" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C129" s="6" t="inlineStr">
         <is>
           <t>"44:52"</t>
         </is>
       </c>
-      <c r="C129" s="4" t="inlineStr">
+      <c r="D129" s="6" t="inlineStr">
         <is>
           <t>I was thinking maybe it'd be a good idea. If it's not partisan person, would actually have to follow a set set up a group of rules that the public sets forth for him to follow when doing his job. And if these rules were all set down by us, then that person will definitely have to be bipartisan because he would have to follow those particular rules.</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The idea is to establish a group of rules for a non-partisan person to follow in their job.
 2. These rules would be set by the public.
@@ -3406,145 +3547,150 @@
 4. This is because they would be required to follow the rules set by the public, regardless of political affiliation.</t>
         </is>
       </c>
-      <c r="F129" t="n">
-        <v>128</v>
-      </c>
     </row>
     <row r="130" ht="12.5" customHeight="1">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="6" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="6" t="n">
         <v>48783</v>
       </c>
-      <c r="B130" s="4" t="inlineStr">
+      <c r="C130" s="6" t="inlineStr">
         <is>
           <t>"45:42"</t>
         </is>
       </c>
-      <c r="C130" s="4" t="inlineStr">
+      <c r="D130" s="6" t="inlineStr">
         <is>
           <t>Even our Justice is the getting beat him scary, because they're not really going for the people either anymore.</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>129</v>
-      </c>
+      <c r="E130" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F130" s="6" t="n"/>
     </row>
     <row r="131" ht="12.5" customHeight="1">
-      <c r="A131" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B131" s="4" t="inlineStr">
+      <c r="A131" s="6" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C131" s="6" t="inlineStr">
         <is>
           <t>"50:05"</t>
         </is>
       </c>
-      <c r="C131" s="4" t="inlineStr">
+      <c r="D131" s="6" t="inlineStr">
         <is>
           <t>I don't think this would be too hard to do especially since we have the internet and it's easy for people to access it. They can take and put their comments on there, they can be treated and then we probably come up with a system that everybody could be happy with.</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v>130</v>
-      </c>
+      <c r="E131" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F131" s="6" t="n"/>
     </row>
     <row r="132" ht="12.5" customHeight="1">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="6" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" s="6" t="n">
         <v>48705</v>
       </c>
-      <c r="B132" s="4" t="inlineStr">
+      <c r="C132" s="6" t="inlineStr">
         <is>
           <t>"50:24"</t>
         </is>
       </c>
-      <c r="C132" s="4" t="inlineStr">
+      <c r="D132" s="6" t="inlineStr">
         <is>
           <t>I like this question from Terry and I think that given some rules this</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
-        <v>131</v>
-      </c>
+      <c r="E132" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F132" s="6" t="n"/>
     </row>
     <row r="133" ht="12.5" customHeight="1">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="6" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" s="6" t="n">
         <v>48783</v>
       </c>
-      <c r="B133" s="4" t="inlineStr">
+      <c r="C133" s="6" t="inlineStr">
         <is>
           <t>"50:40"</t>
         </is>
       </c>
-      <c r="C133" s="4" t="inlineStr">
+      <c r="D133" s="6" t="inlineStr">
         <is>
           <t>Good question, Terry.</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
-        <v>132</v>
-      </c>
+      <c r="E133" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F133" s="6" t="n"/>
     </row>
     <row r="134" ht="12.5" customHeight="1">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="6" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" s="6" t="n">
         <v>48700</v>
       </c>
-      <c r="B134" s="4" t="inlineStr">
+      <c r="C134" s="6" t="inlineStr">
         <is>
           <t>"50:57"</t>
         </is>
       </c>
-      <c r="C134" s="4" t="inlineStr">
+      <c r="D134" s="6" t="inlineStr">
         <is>
           <t>I think this is an excellent question to and I look forward to some of the experts answering this one.</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
-        <v>133</v>
-      </c>
+      <c r="E134" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F134" s="6" t="n"/>
     </row>
     <row r="135" ht="12.5" customHeight="1">
-      <c r="A135" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B135" s="4" t="inlineStr">
+      <c r="A135" s="6" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C135" s="6" t="inlineStr">
         <is>
           <t>"51:05"</t>
         </is>
       </c>
-      <c r="C135" s="4" t="inlineStr">
+      <c r="D135" s="6" t="inlineStr">
         <is>
           <t>The biggest problem with online voting would be that there would be definitely a bunch of actors who want to try to get into the system and clog it up. And if they do then that would just ruin everything. Unfortunately they are out there and they look like they want to get into everything they can to cause so much chaos and disruption. If we can come up with a way to keep them out of the system, a I think it would be a beautiful thing to do but it's</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The biggest problem with online voting is the potential for malicious actors to disrupt the system.
 2. These actors aim to cause chaos and disruption by clogging up the system.
@@ -3554,195 +3700,78 @@
 6. Successfully achieving this would result in a secure and efficient online voting process.</t>
         </is>
       </c>
-      <c r="F135" t="n">
-        <v>134</v>
-      </c>
     </row>
     <row r="136" ht="12.5" customHeight="1">
-      <c r="A136" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B136" s="4" t="inlineStr">
+      <c r="A136" s="6" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C136" s="6" t="inlineStr">
         <is>
           <t>"51:05"</t>
         </is>
       </c>
-      <c r="C136" s="4" t="inlineStr">
+      <c r="D136" s="6" t="inlineStr">
         <is>
           <t>it would be very hard.</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
-        <v>135</v>
-      </c>
+      <c r="E136" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F136" s="6" t="n"/>
     </row>
     <row r="137" ht="12.5" customHeight="1">
-      <c r="A137" s="2" t="n">
-        <v>48774</v>
-      </c>
-      <c r="B137" s="4" t="inlineStr">
+      <c r="A137" s="6" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" s="6" t="n">
+        <v>48774</v>
+      </c>
+      <c r="C137" s="6" t="inlineStr">
         <is>
           <t>"51:52"</t>
         </is>
       </c>
-      <c r="C137" s="4" t="inlineStr">
+      <c r="D137" s="6" t="inlineStr">
         <is>
           <t>Yes, definitely got to get rid of these. These individuals who are pumping in billions of dollars. We're already looking at a judge that's doing great with all the money that he's getting from this billionaire, whose nose whispering in his ear and telling you what he needs to do for for him. And I need to stop. We need to get off of that.</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>136</v>
-      </c>
+      <c r="E137" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F137" s="6" t="n"/>
     </row>
     <row r="138" ht="12.5" customHeight="1">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="6" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" s="6" t="n">
         <v>48783</v>
       </c>
-      <c r="B138" s="4" t="inlineStr">
+      <c r="C138" s="6" t="inlineStr">
         <is>
           <t>"52:17"</t>
         </is>
       </c>
-      <c r="C138" s="4" t="inlineStr">
+      <c r="D138" s="6" t="inlineStr">
         <is>
           <t>We're just not right with him doing it going on right now.</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>137</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>proposal</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="14.5" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="14.5" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>Change the primary system</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="14.5" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>Use proportional representatives to elect elected officials</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="14.5" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Change the current electoral college</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="14.5" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Implement more accessibility to voting</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="14.5" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="14.5" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Implement voting standards that are less strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="14.5" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Implement more measures to address voter fraud</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="14.5" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>Implement more fairness and transparency in the election process</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="14.5" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Implement limits on financing individual candidates and parties</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="14.5" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>Increase in public funding and financing for campaigns</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="14.5" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>Implement a term limit for Supreme Court Justices</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="14.5" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Increase opportunities for learning about civic education in schools</t>
-        </is>
-      </c>
+      <c r="E138" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F138" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
